--- a/25-26/Invoices 25-26/16 BK016 July 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute long/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/Invoices 25-26/16 BK016 July 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute long/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\Invoices 25-26\16 BK016 July 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute long\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32624E52-2E63-400E-950B-6DB2EC1D13AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C470161E-B08C-4CED-A692-794516453399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="company data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="162">
   <si>
     <t>financial year</t>
   </si>
@@ -619,6 +619,9 @@
  KHAMMAM,
  GSTIN/UIN: 36ABKFS6852P1Z8
  State Name :  Telangana, Code : 36</t>
+  </si>
+  <si>
+    <t>ELEVEN THOUSAND SIX HUNDRED FIFTY ONE DOLLAR AND FIFTEEN CENT</t>
   </si>
 </sst>
 </file>
@@ -1351,23 +1354,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1375,6 +1361,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1385,9 +1372,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1402,6 +1392,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1415,6 +1406,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1463,12 +1460,27 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1612,15 +1624,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3105,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3871,7 +3874,9 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15">
+        <v>235</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3901,7 +3906,9 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15">
+        <v>483.45</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -31310,8 +31317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31330,7 +31337,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="76"/>
@@ -31344,16 +31351,16 @@
       <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31362,16 +31369,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="90" t="s">
+      <c r="F3" s="83"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="88"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31380,18 +31387,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="109" t="str">
+      <c r="E4" s="107" t="str">
         <f>'input data'!B3</f>
         <v>BK016/25-26</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="110">
+      <c r="F4" s="89"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="108">
         <f>'input data'!B4</f>
         <v>45859</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="112"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31400,16 +31407,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="90" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="88"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31418,15 +31425,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="106" t="str">
+      <c r="E6" s="103"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="104" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31435,16 +31442,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="90" t="s">
+      <c r="F7" s="83"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="88"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31453,16 +31460,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="107" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31471,16 +31478,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="90" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="91"/>
-      <c r="J9" s="88"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31489,57 +31496,57 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="105" t="str">
+      <c r="E10" s="102" t="str">
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
       <c r="F10" s="76"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="105" t="str">
+      <c r="G10" s="81"/>
+      <c r="H10" s="102" t="str">
         <f>'input data'!B13 &amp; " " &amp; 'input data'!B15</f>
         <v>1 FCL</v>
       </c>
       <c r="I10" s="76"/>
-      <c r="J10" s="84"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="104" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="96" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="str">
+      <c r="A12" s="97" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="102" t="str">
+      <c r="D12" s="81"/>
+      <c r="E12" s="98" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
       <c r="F12" s="76"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="99" t="str">
+      <c r="G12" s="81"/>
+      <c r="H12" s="94" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
       <c r="I12" s="76"/>
-      <c r="J12" s="84"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
@@ -31547,11 +31554,11 @@
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
       <c r="E13" s="86"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31560,17 +31567,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="88"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="str">
+      <c r="A15" s="101" t="str">
         <f>'input data'!B7</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -31581,247 +31588,247 @@
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="76"/>
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="76"/>
-      <c r="J15" s="84"/>
+      <c r="J15" s="81"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="96"/>
       <c r="F16" s="76"/>
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="76"/>
-      <c r="J16" s="84"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="76"/>
       <c r="G17" s="76"/>
       <c r="H17" s="76"/>
       <c r="I17" s="76"/>
-      <c r="J17" s="84"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
-      <c r="J18" s="84"/>
+      <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
-      <c r="J19" s="84"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="86"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="87"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="87" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="87" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="87" t="s">
+      <c r="F21" s="83"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="91"/>
-      <c r="J21" s="88"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="93" t="str">
+      <c r="B22" s="81"/>
+      <c r="C22" s="85" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="94" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="88" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="76"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="94" t="str">
+      <c r="G22" s="81"/>
+      <c r="H22" s="88" t="str">
         <f>'input data'!B23</f>
         <v>VIETNAM</v>
       </c>
       <c r="I22" s="76"/>
-      <c r="J22" s="84"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="84"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="86"/>
-      <c r="D23" s="80"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="86"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="86"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="80"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="92" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90" t="s">
+      <c r="D24" s="79"/>
+      <c r="E24" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="91"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="92" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="88"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="107" t="str">
+      <c r="A25" s="103"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="105" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="107" t="str">
+      <c r="D25" s="87"/>
+      <c r="E25" s="105" t="str">
         <f>'input data'!B21</f>
         <v>DA NANG</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="107" t="str">
+      <c r="F25" s="89"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="105" t="str">
         <f>'input data'!B22</f>
         <v>DA NANG</v>
       </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="80"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="87"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="124" t="s">
+      <c r="C26" s="83"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="90" t="s">
+      <c r="F26" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="88"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="88"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="76"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="107" t="s">
+      <c r="D27" s="81"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="80"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="107" t="s">
+      <c r="I27" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="80"/>
+      <c r="J27" s="87"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="114" t="str">
+      <c r="B28" s="112" t="str">
         <f>'input data'!B18</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="28">
         <v>68022390</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="113">
         <f>'input data'!B26</f>
-        <v>0</v>
+        <v>483.45</v>
       </c>
-      <c r="G28" s="98"/>
+      <c r="G28" s="93"/>
       <c r="H28" s="72">
         <f>'input data'!B27</f>
         <v>24.1</v>
       </c>
-      <c r="I28" s="123">
+      <c r="I28" s="121">
         <f>H28*F28</f>
-        <v>0</v>
+        <v>11651.145</v>
       </c>
-      <c r="J28" s="98"/>
+      <c r="J28" s="93"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="116"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="114"/>
       <c r="H29" s="74"/>
       <c r="I29" s="71"/>
       <c r="J29" s="30"/>
@@ -31842,21 +31849,21 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="70"/>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="128" t="s">
         <v>154</v>
       </c>
       <c r="I30" s="70"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="105" t="str">
+      <c r="A31" s="102" t="str">
         <f>UPPER('input data'!B24)</f>
         <v>WHSU2616373</v>
       </c>
       <c r="B31" s="76"/>
       <c r="C31" s="3">
         <f>'input data'!B25</f>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>76</v>
@@ -31866,7 +31873,7 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="70"/>
-      <c r="H31" s="81"/>
+      <c r="H31" s="128"/>
       <c r="I31" s="70"/>
       <c r="J31" s="20"/>
     </row>
@@ -31876,9 +31883,9 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="81"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="128"/>
       <c r="I32" s="70"/>
       <c r="J32" s="20"/>
     </row>
@@ -31890,11 +31897,11 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="71"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="122">
+      <c r="H33" s="129"/>
+      <c r="I33" s="120">
         <v>0</v>
       </c>
-      <c r="J33" s="98"/>
+      <c r="J33" s="93"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
@@ -31907,47 +31914,49 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="121">
+      <c r="I34" s="119">
         <f>SUM(I28:J33)</f>
-        <v>0</v>
+        <v>11651.145</v>
       </c>
-      <c r="J34" s="88"/>
+      <c r="J34" s="79"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="180"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="182"/>
+      <c r="A35" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="124"/>
       <c r="I35" s="86"/>
-      <c r="J35" s="80"/>
+      <c r="J35" s="87"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="119" t="s">
+      <c r="A36" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="103" t="s">
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="88"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="79"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="120" t="s">
+      <c r="A37" s="118" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="76"/>
       <c r="C37" s="76"/>
-      <c r="D37" s="84"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="19" t="s">
         <v>82</v>
       </c>
@@ -31958,10 +31967,10 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
-      <c r="D38" s="84"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -31970,12 +31979,12 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="111" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
-      <c r="D39" s="84"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -31985,9 +31994,9 @@
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="86"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="87"/>
       <c r="E40" s="31" t="s">
         <v>84</v>
       </c>
@@ -32965,6 +32974,8 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:D27"/>
     <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="H30:H33"/>
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F26:G26"/>
@@ -33005,8 +33016,6 @@
     <mergeCell ref="E12:G13"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="H30:H33"/>
     <mergeCell ref="A15:D20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
@@ -33041,7 +33050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -33054,7 +33063,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="147" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="76"/>
@@ -33068,42 +33077,42 @@
       <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="90" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="145" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="88"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="149" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="109" t="str">
+      <c r="F3" s="81"/>
+      <c r="G3" s="107" t="str">
         <f>Invoice!E4</f>
         <v>BK016/25-26</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="110">
+      <c r="H3" s="87"/>
+      <c r="I3" s="108">
         <f>Invoice!H4</f>
         <v>45859</v>
       </c>
-      <c r="J3" s="112"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -33114,12 +33123,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="145" t="s">
+      <c r="G4" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="88"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -33130,16 +33139,16 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="107" t="str">
+      <c r="G5" s="105" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="150" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="76"/>
@@ -33215,13 +33224,13 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="18"/>
       <c r="G11" s="35" t="s">
         <v>96</v>
@@ -33231,7 +33240,7 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="149" t="str">
+      <c r="A12" s="152" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
@@ -33247,10 +33256,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="30"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -33258,21 +33267,21 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="88"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="str">
+      <c r="A15" s="101" t="str">
         <f>Invoice!A15</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -33285,186 +33294,186 @@
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
       <c r="E15" s="76"/>
-      <c r="F15" s="84"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="84"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="84"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="141" t="s">
+      <c r="F18" s="81"/>
+      <c r="G18" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="142" t="s">
+      <c r="H18" s="79"/>
+      <c r="I18" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="88"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
-      <c r="F19" s="84"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="86"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="143" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="143" t="str">
+      <c r="H20" s="87"/>
+      <c r="I20" s="146" t="str">
         <f>Invoice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="80"/>
+      <c r="J20" s="87"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="139" t="s">
+      <c r="B21" s="83"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="150" t="s">
+      <c r="E21" s="83"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="98"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="107" t="str">
+      <c r="A22" s="103"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="105" t="str">
         <f>Invoice!C22</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="140" t="str">
+      <c r="E22" s="89"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="143" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="87"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="139" t="s">
+      <c r="A23" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="139" t="s">
+      <c r="B23" s="83"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="88"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="42"/>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
       <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="107" t="str">
+      <c r="A24" s="103"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="105" t="str">
         <f>Invoice!C25</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="31"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="139" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="127" t="s">
+      <c r="E25" s="83"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="98"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="str">
+      <c r="A26" s="90" t="str">
         <f>Invoice!E25</f>
         <v>DA NANG</v>
       </c>
       <c r="B26" s="76"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="95" t="str">
+      <c r="C26" s="81"/>
+      <c r="D26" s="90" t="str">
         <f>Invoice!H25</f>
         <v>DA NANG</v>
       </c>
       <c r="E26" s="76"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="141" t="str">
+      <c r="F26" s="81"/>
+      <c r="G26" s="144" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="88"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
@@ -33482,44 +33491,44 @@
       <c r="A28" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="107" t="s">
+      <c r="C28" s="87"/>
+      <c r="D28" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
       <c r="G28" s="48"/>
       <c r="H28" s="49"/>
-      <c r="I28" s="107" t="s">
+      <c r="I28" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="80"/>
+      <c r="J28" s="87"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>1</v>
       </c>
-      <c r="B29" s="114">
+      <c r="B29" s="112">
         <f>Invoice!E28</f>
         <v>68022390</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="136" t="str">
+      <c r="C29" s="93"/>
+      <c r="D29" s="139" t="str">
         <f>Invoice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="137">
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="140">
         <f>Invoice!F28</f>
-        <v>0</v>
+        <v>483.45</v>
       </c>
-      <c r="J29" s="98"/>
+      <c r="J29" s="93"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
@@ -33532,11 +33541,11 @@
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
-      <c r="I30" s="138">
+      <c r="I30" s="141">
         <f>SUM(I29:J29)</f>
-        <v>0</v>
+        <v>483.45</v>
       </c>
-      <c r="J30" s="98"/>
+      <c r="J30" s="93"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
@@ -33551,14 +33560,14 @@
       <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="90" t="s">
         <v>107</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="117" t="s">
+      <c r="D32" s="115" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="76"/>
@@ -33571,16 +33580,16 @@
       <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="105" t="str">
+      <c r="A33" s="102" t="str">
         <f>Invoice!A31</f>
         <v>WHSU2616373</v>
       </c>
       <c r="B33" s="76"/>
       <c r="C33" s="51">
         <f>'input data'!B25</f>
-        <v>0</v>
+        <v>235</v>
       </c>
-      <c r="D33" s="134" t="s">
+      <c r="D33" s="137" t="s">
         <v>108</v>
       </c>
       <c r="E33" s="76"/>
@@ -33648,64 +33657,64 @@
       <c r="J37" s="56"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="103" t="s">
+      <c r="A38" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="103" t="s">
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="88"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="79"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="138" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="84"/>
+      <c r="F39" s="81"/>
       <c r="G39" s="19"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="128" t="s">
+      <c r="A40" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="130"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="133"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="131" t="s">
+      <c r="A41" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="133" t="s">
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="80"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="87"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34732,8 +34741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K19"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34747,58 +34756,58 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="57"/>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="173"/>
-      <c r="R1" s="177"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="176"/>
+      <c r="R1" s="180"/>
       <c r="S1" s="76"/>
       <c r="T1" s="76"/>
       <c r="U1" s="76"/>
       <c r="V1" s="76"/>
-      <c r="W1" s="160"/>
+      <c r="W1" s="163"/>
       <c r="X1" s="76"/>
       <c r="Y1" s="76"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="57"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="88"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="182" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="76"/>
@@ -34809,22 +34818,22 @@
       <c r="H4" s="76"/>
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
-      <c r="K4" s="84"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -34841,7 +34850,7 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="172" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="76"/>
@@ -34852,7 +34861,7 @@
       <c r="H7" s="76"/>
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="84"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -34931,7 +34940,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="150" t="s">
         <v>159</v>
       </c>
       <c r="C13" s="76"/>
@@ -34946,7 +34955,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="101" t="s">
         <v>160</v>
       </c>
       <c r="C14" s="76"/>
@@ -34961,7 +34970,7 @@
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="85"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
       <c r="E15" s="76"/>
@@ -35002,113 +35011,113 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52"/>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="104" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="104" t="s">
+      <c r="G18" s="93"/>
+      <c r="H18" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="98"/>
-      <c r="J18" s="104" t="s">
+      <c r="I18" s="93"/>
+      <c r="J18" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="98"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="104">
-        <v>152.07</v>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="100">
+        <v>178.86</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="158">
-        <v>4817.79</v>
+      <c r="G19" s="93"/>
+      <c r="H19" s="161">
+        <v>5092</v>
       </c>
-      <c r="I19" s="98"/>
-      <c r="J19" s="163">
+      <c r="I19" s="93"/>
+      <c r="J19" s="166">
         <f>F19*H19</f>
-        <v>732641.32529999991</v>
+        <v>910755.12000000011</v>
       </c>
-      <c r="K19" s="98"/>
+      <c r="K19" s="93"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
-      <c r="B20" s="105"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="151" t="s">
+      <c r="F20" s="163"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="152"/>
-      <c r="J20" s="167">
+      <c r="I20" s="155"/>
+      <c r="J20" s="170">
         <f>J19*0.001</f>
-        <v>732.64132529999995</v>
+        <v>910.75512000000015</v>
       </c>
-      <c r="K20" s="168"/>
+      <c r="K20" s="171"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="33"/>
       <c r="G21" s="62"/>
-      <c r="H21" s="154" t="s">
+      <c r="H21" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="155"/>
-      <c r="J21" s="156">
+      <c r="I21" s="158"/>
+      <c r="J21" s="159">
         <f>SUM(J19:K20)</f>
-        <v>733373.96662529989</v>
+        <v>911665.8751200001</v>
       </c>
-      <c r="K21" s="157"/>
+      <c r="K21" s="160"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
-      <c r="B22" s="105"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="76"/>
       <c r="D22" s="76"/>
       <c r="E22" s="76"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="159"/>
+      <c r="H22" s="162"/>
       <c r="I22" s="76"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="84"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="97"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="162">
+      <c r="J23" s="165">
         <f>J21</f>
-        <v>733373.96662529989</v>
+        <v>911665.8751200001</v>
       </c>
-      <c r="K23" s="98"/>
+      <c r="K23" s="93"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -35125,7 +35134,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="156" t="s">
         <v>130</v>
       </c>
       <c r="C25" s="76"/>
@@ -35281,7 +35290,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="149" t="s">
         <v>141</v>
       </c>
       <c r="C35" s="76"/>
@@ -35296,7 +35305,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="149" t="s">
         <v>142</v>
       </c>
       <c r="C36" s="76"/>
